--- a/策划文案/职业表.xlsx
+++ b/策划文案/职业表.xlsx
@@ -952,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
   <si>
     <t>初始职业</t>
   </si>
@@ -1437,7 +1437,13 @@
     <t>武器主类别</t>
   </si>
   <si>
-    <t>属性</t>
+    <t>攻击属性</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>抗击弱势属性</t>
   </si>
   <si>
     <t>生命（HP）</t>
@@ -1479,6 +1485,9 @@
     <t>无</t>
   </si>
   <si>
+    <t>风/雷/水/火/冰/地/光/暗</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twin-Sword </t>
   </si>
   <si>
@@ -1497,21 +1506,42 @@
     <t>单手斧</t>
   </si>
   <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>风/雷/水/冰/地/光/暗</t>
+  </si>
+  <si>
     <t>Twin-Sickle</t>
   </si>
   <si>
     <t>单手镰刀</t>
   </si>
   <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>雷/水/火/冰/地/光/暗</t>
+  </si>
+  <si>
     <t>blast Twin-Sword</t>
   </si>
   <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>风/水/火/冰/地/光/暗</t>
+  </si>
+  <si>
     <t>Glaive</t>
   </si>
   <si>
     <t xml:space="preserve">Axe Berserker </t>
   </si>
   <si>
+    <t>风/雷/水/冰/光/暗</t>
+  </si>
+  <si>
     <t>Eagle</t>
   </si>
   <si>
@@ -1533,6 +1563,12 @@
     <t>单手战斧</t>
   </si>
   <si>
+    <t>风/火</t>
+  </si>
+  <si>
+    <t>雷/水/冰/光/暗</t>
+  </si>
+  <si>
     <t>War Butcher</t>
   </si>
   <si>
@@ -1557,12 +1593,18 @@
     <t>双手镰</t>
   </si>
   <si>
+    <t>风/水/暗</t>
+  </si>
+  <si>
     <t>Spirit Sword</t>
   </si>
   <si>
     <t>灵魂剑（单手）</t>
   </si>
   <si>
+    <t>光/暗</t>
+  </si>
+  <si>
     <t>Siege hammer</t>
   </si>
   <si>
@@ -1587,18 +1629,33 @@
     <t>单手双刃斧</t>
   </si>
   <si>
+    <t>风/火/雷</t>
+  </si>
+  <si>
+    <t>水/冰/光/暗</t>
+  </si>
+  <si>
     <t>Death Weapen</t>
   </si>
   <si>
     <t>双手大镰</t>
   </si>
   <si>
+    <t>雷/暗</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
     <t>Ghost Sword</t>
   </si>
   <si>
     <t>灵魂剑暗（单手）</t>
   </si>
   <si>
+    <t>暗</t>
+  </si>
+  <si>
     <t>献祭心魔</t>
   </si>
   <si>
@@ -1617,12 +1674,18 @@
     <t>龙之大剑</t>
   </si>
   <si>
+    <t>火/雷/光</t>
+  </si>
+  <si>
     <t>kingdom Fortress</t>
   </si>
   <si>
     <t>王国单手剑/王国盾</t>
   </si>
   <si>
+    <t>水/风/光</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaos Warrior </t>
   </si>
   <si>
@@ -1635,10 +1698,19 @@
     <t>亡者之剑（单手）</t>
   </si>
   <si>
+    <t>冰/水/地/暗</t>
+  </si>
+  <si>
+    <t>光（免疫普攻）</t>
+  </si>
+  <si>
     <t>God of War</t>
   </si>
   <si>
     <t>神圣大剑</t>
+  </si>
+  <si>
+    <t>风/雷/火/光</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1718,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1657,44 +1729,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1712,6 +1746,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1720,15 +1762,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1742,9 +1783,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1758,9 +1798,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1775,8 +1814,48 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1796,15 +1875,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1819,19 +1891,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,7 +1939,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1981,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,37 +2005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,7 +2017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,49 +2029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,19 +2059,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,20 +2143,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,32 +2182,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2154,6 +2208,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2170,10 +2248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2182,137 +2260,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2322,8 +2400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2693,7 +2777,7 @@
   <dimension ref="C1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C12" sqref="C12:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="21" customHeight="1"/>
@@ -2738,10 +2822,10 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2764,8 +2848,8 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2783,18 +2867,18 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2805,22 +2889,22 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2840,13 +2924,13 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2857,26 +2941,26 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:10">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2893,10 +2977,10 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:9">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
@@ -2907,39 +2991,39 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="5" t="s">
+    <row r="14" s="7" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:10">
-      <c r="C15" s="10"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2950,21 +3034,21 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2" t="s">
         <v>54</v>
       </c>
@@ -2976,13 +3060,13 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3002,9 +3086,9 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
@@ -3019,14 +3103,14 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3043,10 +3127,10 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="1" t="s">
         <v>74</v>
       </c>
@@ -3058,11 +3142,11 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C22" s="9"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3081,132 +3165,132 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" customHeight="1" spans="6:9">
-      <c r="F23" s="6" t="s">
+    <row r="23" s="8" customFormat="1" customHeight="1" spans="6:9">
+      <c r="F23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C24" s="10" t="s">
+    <row r="24" s="9" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="I25" s="7" t="s">
+    <row r="25" s="9" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="I25" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7" t="s">
+    <row r="26" s="9" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
+    <row r="27" s="9" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
+    <row r="28" s="9" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I29" s="7" t="s">
+    <row r="29" s="9" customFormat="1" customHeight="1" spans="9:9">
+      <c r="I29" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3217,12 +3301,12 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="1" t="s">
         <v>115</v>
       </c>
@@ -3231,18 +3315,18 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="10" t="s">
         <v>118</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -3253,18 +3337,18 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C34" s="9"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1" t="s">
         <v>122</v>
       </c>
@@ -3288,7 +3372,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C35" s="6"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
         <v>128</v>
       </c>
@@ -3311,46 +3395,46 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C36" s="10" t="s">
+    <row r="36" s="9" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C36" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:9">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:10">
-      <c r="C38" s="10"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="2" t="s">
         <v>142</v>
       </c>
@@ -3371,11 +3455,11 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:9">
-      <c r="C39" s="10"/>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>147</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -3392,9 +3476,9 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:10">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="2" t="s">
         <v>151</v>
       </c>
@@ -3492,10 +3576,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:R32"/>
+  <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="19" customHeight="1"/>
@@ -3506,26 +3590,29 @@
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="2"/>
-    <col min="10" max="10" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="14.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.375" style="3"/>
-    <col min="19" max="16384" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="2"/>
+    <col min="13" max="13" width="14.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="14.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.375" style="4"/>
+    <col min="22" max="16384" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="8:8">
-      <c r="H1" s="2" t="s">
+    <row r="1" ht="24" customHeight="1" spans="11:11">
+      <c r="K1" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:17">
+    <row r="2" customHeight="1" spans="2:20">
       <c r="B2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3541,41 +3628,50 @@
       <c r="F2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>163</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="S2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -3586,19 +3682,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -3610,20 +3703,29 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="2:17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:20">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3634,19 +3736,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
+      <c r="I5" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -3658,19 +3757,28 @@
         <v>1</v>
       </c>
       <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <v>10</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -3681,44 +3789,50 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
         <v>10</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:17">
+      <c r="T6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:20">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3729,43 +3843,49 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+        <v>183</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
         <v>20</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -3776,29 +3896,26 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+        <v>187</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
@@ -3806,14 +3923,23 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
         <v>20</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:17">
+      <c r="T8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:20">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -3824,43 +3950,49 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>20</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>3</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:18">
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -3871,44 +4003,50 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+        <v>181</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
         <v>20</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:17">
+      <c r="T10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:20">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -3919,43 +4057,49 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
+        <v>183</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>4</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
         <v>30</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -3966,44 +4110,44 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>30</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>4</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:17">
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:20">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -4014,43 +4158,43 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
+        <v>198</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>5</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <v>30</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T13" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -4061,19 +4205,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -4082,23 +4217,32 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>30</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:17">
+      <c r="T14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:20">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -4109,43 +4253,49 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
+        <v>202</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>5</v>
       </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
         <v>2</v>
       </c>
-      <c r="P15" s="2">
+      <c r="S15" s="2">
         <v>40</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T15" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -4156,29 +4306,20 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
+        <v>206</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>4</v>
       </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
       <c r="N16" s="1">
         <v>1</v>
       </c>
@@ -4186,14 +4327,23 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
         <v>40</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:17">
+      <c r="T16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:20">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -4204,43 +4354,43 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+        <v>208</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
       <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
         <v>5</v>
       </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <v>40</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T17" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -4251,19 +4401,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
@@ -4272,23 +4413,32 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
         <v>40</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:17">
+      <c r="T18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:20">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -4299,29 +4449,23 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
+        <v>212</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
       <c r="N19" s="2">
         <v>1</v>
       </c>
@@ -4329,13 +4473,22 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>50</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T19" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -4346,44 +4499,50 @@
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
+        <v>215</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>5</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20" s="1">
         <v>3</v>
       </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
         <v>50</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" customHeight="1" spans="2:17">
+      <c r="T20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:20">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -4394,19 +4553,10 @@
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="K21" s="2">
         <v>2</v>
@@ -4415,22 +4565,31 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
         <v>50</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T21" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -4441,44 +4600,44 @@
         <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="1">
+        <v>220</v>
+      </c>
+      <c r="K22" s="1">
         <v>4</v>
       </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>4</v>
       </c>
-      <c r="K22" s="1">
+      <c r="N22" s="1">
         <v>3</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
       <c r="O22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
         <v>50</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="2:17">
+      <c r="T22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:20">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -4489,19 +4648,16 @@
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" s="2">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="K23" s="2">
         <v>6</v>
@@ -4513,19 +4669,28 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
         <v>5</v>
       </c>
-      <c r="P23" s="2">
+      <c r="S23" s="2">
         <v>50</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T23" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -4536,44 +4701,50 @@
         <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+        <v>224</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>6</v>
       </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
         <v>3</v>
       </c>
-      <c r="P24" s="1">
+      <c r="S24" s="1">
         <v>60</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:17">
+      <c r="T24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:20">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -4584,43 +4755,49 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
+        <v>228</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
         <v>6</v>
       </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
       <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
         <v>2</v>
       </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
         <v>60</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T25" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -4631,44 +4808,50 @@
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
+        <v>232</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
         <v>6</v>
       </c>
-      <c r="K26" s="1">
+      <c r="N26" s="1">
         <v>4</v>
       </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
         <v>60</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:17">
+      <c r="T26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:20">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -4679,43 +4862,49 @@
         <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
         <v>6</v>
       </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
       <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
         <v>5</v>
       </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
         <v>60</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T27" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -4726,19 +4915,16 @@
         <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>6</v>
+        <v>239</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -4747,23 +4933,32 @@
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
         <v>60</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:17">
+      <c r="T28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:20">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -4774,43 +4969,50 @@
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" s="2">
+        <v>242</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
         <v>4</v>
       </c>
-      <c r="K29" s="2">
+      <c r="N29" s="2">
         <v>5</v>
       </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
       <c r="O29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2">
         <v>60</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T29" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -4821,44 +5023,50 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
+        <v>245</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
         <v>7</v>
       </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
         <v>4</v>
       </c>
-      <c r="P30" s="1">
+      <c r="S30" s="1">
         <v>70</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:17">
+      <c r="T30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:20">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -4869,29 +5077,26 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
+        <v>247</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
         <v>8</v>
       </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
       <c r="N31" s="2">
         <v>0</v>
       </c>
@@ -4899,13 +5104,22 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
         <v>70</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="2:18">
+      <c r="T31" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -4916,42 +5130,77 @@
         <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="1">
+        <v>251</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="1">
         <v>2</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
         <v>8</v>
       </c>
-      <c r="K32" s="1">
+      <c r="N32" s="1">
         <v>3</v>
       </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
         <v>70</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R32" s="4"/>
+      <c r="T32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="2:21">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:2">
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="2:21">
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="U36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/策划文案/职业表.xlsx
+++ b/策划文案/职业表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="NameList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <author>chenyiheng</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,12 +46,147 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t xml:space="preserve"> 达成条件
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  支线，献祭心魔开启</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenyiheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>免疫物理伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenyiheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 达成条件
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  支线，献祭神明开启
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">没有后续职业，
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>但强度为高敏高闪低血低防</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenyiheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve"> 抵抗魔法伤害
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +242,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 达成条件
+          <t xml:space="preserve"> 舍弃敏捷 防御
 </t>
         </r>
         <r>
@@ -116,11 +251,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">  支线，献祭心魔开启</t>
+          <t xml:space="preserve"> 高输出低命中
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 血量越少攻击越高</t>
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,11 +290,39 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>免疫物理伤害</t>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 除了防御一无是处
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 但是最强防御
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 没有后续职业
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +348,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 达成条件
+          <t xml:space="preserve"> 免疫物理伤害
 </t>
         </r>
         <r>
@@ -185,38 +357,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">  支线，献祭神明开启
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">没有后续职业，
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>但强度为高敏高闪低血低防</t>
+          <t xml:space="preserve"> 被法术伤害攻击有加成</t>
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="F13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,29 +387,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 舍弃敏捷 防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 高输出低命中
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 血量越少攻击越高</t>
+          <t>直线攻击眩晕一排</t>
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +417,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 
+          <t xml:space="preserve">完成支线任务“空之霸主”解锁
 </t>
         </r>
         <r>
@@ -299,30 +426,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 除了防御一无是处
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 但是最强防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 没有后续职业
-</t>
+          <t>全9宫格AOE</t>
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +456,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 免疫物理伤害
+          <t xml:space="preserve"> 高敏高闪
 </t>
         </r>
         <r>
@@ -357,11 +465,29 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 被法术伤害攻击有加成</t>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>phantom</t>
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,11 +513,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>直线攻击眩晕一排</t>
+          <t>cluster arrow</t>
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="0">
+    <comment ref="G20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +543,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">完成支线任务“空之霸主”解锁
+          <t xml:space="preserve"> 直线贯穿（必中，每场战斗只能用一次/or后续配置）
 </t>
         </r>
         <r>
@@ -426,11 +552,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>全9宫格AOE</t>
+          <t xml:space="preserve">    技能效果为彻底封印行动能力直至战斗结束
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    BOSS有概率免疫（60%）</t>
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,20 +591,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 暴击高暴击伤害高
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 伤害波动大</t>
+          <t>Holy Descendant Seal</t>
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="F26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,8 +621,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 高敏高闪
-</t>
+          <t>conclav</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenyiheng:</t>
         </r>
         <r>
           <rPr>
@@ -513,6 +651,36 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t xml:space="preserve"> 唯一可以装备武器
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 米斯特汀 的职业</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>chenyiheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
         </r>
@@ -522,11 +690,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>phantom</t>
+          <t xml:space="preserve">完成支线任务
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 利伯亚的遗产</t>
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0">
+    <comment ref="G30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,11 +729,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>cluster arrow</t>
+          <t xml:space="preserve"> 水 冰 风</t>
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="G31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -582,12 +759,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">arquebusier 
-</t>
+          <t>炎 雷 地</t>
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0">
+    <comment ref="F33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -613,279 +789,6 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve"> 随机敌方九宫格一个位置
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 如果当前位置上有敌人，立即死亡（包
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 括BOSS），如果没有，扣除 50% HP
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> Death Roulette </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 直线贯穿（必中，每场战斗只能用一次/or后续配置）
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">    技能效果为彻底封印行动能力直至战斗结束
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">    BOSS有概率免疫（60%）</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>conclav</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 唯一可以装备武器
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 米斯特汀 的职业</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">完成支线任务
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 利伯亚的遗产</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 水 冰 风</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>炎 雷 地</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
           <t xml:space="preserve"> 没有攻击没有防御
 </t>
         </r>
@@ -905,45 +808,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 在场上时，圣兽按一定比例强化</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>chenyiheng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 特殊技能是模仿，
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 可以变成任何正在对战的怪物，包括BOSS，能力属性百分百复制</t>
         </r>
       </text>
     </comment>
@@ -952,687 +816,546 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
   <si>
     <t>初始职业</t>
   </si>
   <si>
+    <t>总职业数量</t>
+  </si>
+  <si>
     <t>游侠</t>
   </si>
   <si>
+    <t>疾风双剑</t>
+  </si>
+  <si>
+    <t>御剑圣灵</t>
+  </si>
+  <si>
+    <t>剑鬼</t>
+  </si>
+  <si>
+    <t>英灵殿祭</t>
+  </si>
+  <si>
+    <t>无念神剑</t>
+  </si>
+  <si>
+    <t>大剑狂战士</t>
+  </si>
+  <si>
+    <t>战场屠夫</t>
+  </si>
+  <si>
+    <t>逆川勇者</t>
+  </si>
+  <si>
+    <t>混沌战士</t>
+  </si>
+  <si>
+    <t>战场死神</t>
+  </si>
+  <si>
+    <t>攻城锤</t>
+  </si>
+  <si>
+    <t>龙剑</t>
+  </si>
+  <si>
+    <t>战神</t>
+  </si>
+  <si>
+    <t>剑盾</t>
+  </si>
+  <si>
+    <t>厚土</t>
+  </si>
+  <si>
+    <t>王国要塞</t>
+  </si>
+  <si>
+    <t>诸神甲胄</t>
+  </si>
+  <si>
+    <t>佣兵</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>狼骑士</t>
+  </si>
+  <si>
+    <t>幽灵骑士</t>
+  </si>
+  <si>
+    <t>恐惧骑士</t>
+  </si>
+  <si>
+    <t>战争巨象</t>
+  </si>
+  <si>
+    <t>天空骑士</t>
+  </si>
+  <si>
+    <t>皇家狮鹫</t>
+  </si>
+  <si>
+    <t>龙骑</t>
+  </si>
+  <si>
+    <t>王国卫队</t>
+  </si>
+  <si>
+    <t>皇家骑士</t>
+  </si>
+  <si>
+    <t>银骑士枪</t>
+  </si>
+  <si>
+    <t>自由枪骑兵</t>
+  </si>
+  <si>
+    <t>放逐骑士</t>
+  </si>
+  <si>
+    <t>影骑</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>集束箭</t>
+  </si>
+  <si>
+    <t>燧发枪手</t>
+  </si>
+  <si>
+    <t>死亡轮盘</t>
+  </si>
+  <si>
+    <t>鹰头标枪</t>
+  </si>
+  <si>
+    <t>银枪卫士</t>
+  </si>
+  <si>
+    <t>圣枪游侠</t>
+  </si>
+  <si>
+    <t>隆基努斯之枪</t>
+  </si>
+  <si>
+    <t>长单短AOE</t>
+  </si>
+  <si>
+    <t>弓弩手</t>
+  </si>
+  <si>
+    <t>皇家弩手</t>
+  </si>
+  <si>
+    <t>猎魔人</t>
+  </si>
+  <si>
+    <t>封印圣裔</t>
+  </si>
+  <si>
+    <t>机关连弩</t>
+  </si>
+  <si>
+    <t>终结者</t>
+  </si>
+  <si>
+    <t>斥候</t>
+  </si>
+  <si>
+    <t>双刃</t>
+  </si>
+  <si>
+    <t>放逐者</t>
+  </si>
+  <si>
+    <t>堕落者</t>
+  </si>
+  <si>
+    <t>堕落领主</t>
+  </si>
+  <si>
+    <t>边境伯爵</t>
+  </si>
+  <si>
+    <t>钉剑</t>
+  </si>
+  <si>
+    <t>花纹刺剑</t>
+  </si>
+  <si>
+    <t>时间秘会</t>
+  </si>
+  <si>
+    <t>永恒历程</t>
+  </si>
+  <si>
+    <t>拳刃</t>
+  </si>
+  <si>
+    <t>朝圣者</t>
+  </si>
+  <si>
+    <t>黄昏之刃</t>
+  </si>
+  <si>
+    <t>利伯亚的子民</t>
+  </si>
+  <si>
+    <t>永生体</t>
+  </si>
+  <si>
+    <t>灵魂猎者</t>
+  </si>
+  <si>
+    <t>初级元素师</t>
+  </si>
+  <si>
+    <t>魔法学徒</t>
+  </si>
+  <si>
+    <t>自然法师</t>
+  </si>
+  <si>
+    <t>水元素师</t>
+  </si>
+  <si>
+    <t>圣魔导师</t>
+  </si>
+  <si>
+    <t>火元素师</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>兽王神</t>
+  </si>
+  <si>
+    <t>龙之逆鳞</t>
+  </si>
+  <si>
+    <t>献祭圣灵</t>
+  </si>
+  <si>
+    <t>光之元素师</t>
+  </si>
+  <si>
+    <t>神殿法师</t>
+  </si>
+  <si>
+    <t>不朽圣灵</t>
+  </si>
+  <si>
+    <t>六翼天使</t>
+  </si>
+  <si>
+    <t>暗之元素师</t>
+  </si>
+  <si>
+    <t>放逐法师</t>
+  </si>
+  <si>
+    <t>永生怨灵</t>
+  </si>
+  <si>
+    <t>死亡之主</t>
+  </si>
+  <si>
+    <t>僧侣</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>神殿牧师</t>
+  </si>
+  <si>
+    <t>云上居民</t>
+  </si>
+  <si>
+    <t>大天使长</t>
+  </si>
+  <si>
+    <t>无上教皇</t>
+  </si>
+  <si>
+    <t>吸血鬼猎人</t>
+  </si>
+  <si>
+    <t>圣十字枪</t>
+  </si>
+  <si>
+    <t>范海辛的学徒</t>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+  </si>
+  <si>
+    <t>魔王之咬</t>
+  </si>
+  <si>
+    <t>死亡伯爵</t>
+  </si>
+  <si>
+    <t>恐惧魔王</t>
+  </si>
+  <si>
+    <t>成长属性</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>前置职业ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>武器主类别</t>
+  </si>
+  <si>
+    <t>攻击属性</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>抗击弱势属性</t>
+  </si>
+  <si>
+    <t>生命（HP）</t>
+  </si>
+  <si>
+    <t>魔法（MP）</t>
+  </si>
+  <si>
+    <t>攻击（ATK）</t>
+  </si>
+  <si>
+    <t>防御（DEF）</t>
+  </si>
+  <si>
+    <t>MAT（魔攻）</t>
+  </si>
+  <si>
+    <t>MDF（魔防）</t>
+  </si>
+  <si>
+    <t>AGI（敏捷）</t>
+  </si>
+  <si>
+    <t>LUK（意志）</t>
+  </si>
+  <si>
+    <t>解锁等级</t>
+  </si>
+  <si>
+    <t>解锁条件</t>
+  </si>
+  <si>
+    <t>ranger</t>
+  </si>
+  <si>
+    <t>单手剑/单手斧/单手镰刀</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>风/雷/水/火/冰/地/光/暗</t>
+  </si>
+  <si>
     <t>双剑</t>
   </si>
   <si>
+    <t xml:space="preserve">Twin-Sword </t>
+  </si>
+  <si>
+    <t>单手剑</t>
+  </si>
+  <si>
+    <t>重剑</t>
+  </si>
+  <si>
+    <t>claymore</t>
+  </si>
+  <si>
+    <t>双手剑</t>
+  </si>
+  <si>
     <t>双斧</t>
   </si>
   <si>
+    <t xml:space="preserve">Twin-Axe </t>
+  </si>
+  <si>
+    <t>单手斧</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>风/雷/水/冰/地/光/暗</t>
+  </si>
+  <si>
+    <t>双镰</t>
+  </si>
+  <si>
+    <t>Twin-Sickle</t>
+  </si>
+  <si>
+    <t>单手镰刀</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>雷/水/火/冰/地/光/暗</t>
+  </si>
+  <si>
+    <t>blast Twin-Sword</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>风/水/火/冰/地/光/暗</t>
+  </si>
+  <si>
+    <t>大剑战士</t>
+  </si>
+  <si>
+    <t>Glaive</t>
+  </si>
+  <si>
     <t>狂战斧</t>
   </si>
   <si>
+    <t xml:space="preserve">Axe Berserker </t>
+  </si>
+  <si>
+    <t>风/雷/水/冰/光/暗</t>
+  </si>
+  <si>
+    <t>飞鹰</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claymore Berserker </t>
+  </si>
+  <si>
+    <t>双手大剑</t>
+  </si>
+  <si>
+    <t>Attack-Shield</t>
+  </si>
+  <si>
+    <t>单手剑/盾</t>
+  </si>
+  <si>
     <t>风暴战士</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>逆川勇者</t>
-  </si>
-  <si>
-    <t>混沌战士</t>
-  </si>
-  <si>
-    <t>双镰</t>
-  </si>
-  <si>
-    <t>战场屠夫</t>
-  </si>
-  <si>
-    <t>战场死神</t>
+    <t>Storm Warrior</t>
+  </si>
+  <si>
+    <t>单手战斧</t>
+  </si>
+  <si>
+    <t>风/火</t>
+  </si>
+  <si>
+    <t>雷/水/冰/光/暗</t>
+  </si>
+  <si>
+    <t>War Butcher</t>
+  </si>
+  <si>
+    <t>单手战镰</t>
+  </si>
+  <si>
+    <t>分裂者</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>单手刺</t>
+  </si>
+  <si>
+    <t>铁壁</t>
+  </si>
+  <si>
+    <t>Iron Wall</t>
+  </si>
+  <si>
+    <t>单手锤/盾</t>
+  </si>
+  <si>
+    <t>War Death</t>
+  </si>
+  <si>
+    <t>双手镰</t>
+  </si>
+  <si>
+    <t>风/水/暗</t>
+  </si>
+  <si>
+    <t>Spirit Sword</t>
+  </si>
+  <si>
+    <t>灵魂剑（单手）</t>
+  </si>
+  <si>
+    <t>光/暗</t>
+  </si>
+  <si>
+    <t>Siege hammer</t>
+  </si>
+  <si>
+    <t>双手重剑</t>
+  </si>
+  <si>
+    <t>Thick soil</t>
+  </si>
+  <si>
+    <t>皇家单手剑/皇家盾</t>
+  </si>
+  <si>
+    <t>God's Armor</t>
+  </si>
+  <si>
+    <t>塔盾</t>
+  </si>
+  <si>
+    <t>Anarrhea Warrior</t>
+  </si>
+  <si>
+    <t>单手双刃斧</t>
+  </si>
+  <si>
+    <t>风/火/雷</t>
+  </si>
+  <si>
+    <t>水/冰/光/暗</t>
   </si>
   <si>
     <t>死神兵刃</t>
-  </si>
-  <si>
-    <t>疾风双剑</t>
-  </si>
-  <si>
-    <t>飞鹰</t>
-  </si>
-  <si>
-    <t>分裂者</t>
-  </si>
-  <si>
-    <t>御剑圣灵</t>
-  </si>
-  <si>
-    <t>剑鬼</t>
-  </si>
-  <si>
-    <t>英灵殿祭</t>
-  </si>
-  <si>
-    <t>无念神剑</t>
-  </si>
-  <si>
-    <t>重剑</t>
-  </si>
-  <si>
-    <t>大剑战士</t>
-  </si>
-  <si>
-    <t>大剑狂战士</t>
-  </si>
-  <si>
-    <t>攻城锤</t>
-  </si>
-  <si>
-    <t>龙剑</t>
-  </si>
-  <si>
-    <t>战神</t>
-  </si>
-  <si>
-    <t>剑盾</t>
-  </si>
-  <si>
-    <t>铁壁</t>
-  </si>
-  <si>
-    <t>厚土</t>
-  </si>
-  <si>
-    <t>王国要塞</t>
-  </si>
-  <si>
-    <t>诸神甲胄</t>
-  </si>
-  <si>
-    <t>佣兵</t>
-  </si>
-  <si>
-    <t>初级骑士</t>
-  </si>
-  <si>
-    <t>轻甲骑士</t>
-  </si>
-  <si>
-    <t>重甲骑士</t>
-  </si>
-  <si>
-    <t>死亡骑士</t>
-  </si>
-  <si>
-    <t>无头骑士</t>
-  </si>
-  <si>
-    <t>幽灵骑士</t>
-  </si>
-  <si>
-    <t>恐惧骑士</t>
-  </si>
-  <si>
-    <t>狼骑士</t>
-  </si>
-  <si>
-    <t>熊骑士</t>
-  </si>
-  <si>
-    <t>战争巨象</t>
-  </si>
-  <si>
-    <t>天空骑士</t>
-  </si>
-  <si>
-    <t>皇家狮鹫</t>
-  </si>
-  <si>
-    <t>凤凰骑士</t>
-  </si>
-  <si>
-    <t>龙骑</t>
-  </si>
-  <si>
-    <t>游骑兵</t>
-  </si>
-  <si>
-    <t>王国卫队</t>
-  </si>
-  <si>
-    <t>十字军骑士</t>
-  </si>
-  <si>
-    <t>皇家骑士</t>
-  </si>
-  <si>
-    <t>圣骑士</t>
-  </si>
-  <si>
-    <t>高地骑士</t>
-  </si>
-  <si>
-    <t>自由枪骑兵</t>
-  </si>
-  <si>
-    <t>银骑士枪</t>
-  </si>
-  <si>
-    <t>放逐骑士</t>
-  </si>
-  <si>
-    <t>黑驹</t>
-  </si>
-  <si>
-    <t>影骑</t>
-  </si>
-  <si>
-    <t>猎人</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>长弓手</t>
-  </si>
-  <si>
-    <t>英格兰长弓</t>
-  </si>
-  <si>
-    <t>集束箭</t>
-  </si>
-  <si>
-    <t>冰雹</t>
-  </si>
-  <si>
-    <t>流星火</t>
-  </si>
-  <si>
-    <t>火绳枪手</t>
-  </si>
-  <si>
-    <t>燧发枪手</t>
-  </si>
-  <si>
-    <t>战地火炮</t>
-  </si>
-  <si>
-    <t>死亡轮盘</t>
-  </si>
-  <si>
-    <t>标枪</t>
-  </si>
-  <si>
-    <t>长柄标枪</t>
-  </si>
-  <si>
-    <t>鹰头标枪</t>
-  </si>
-  <si>
-    <t>合金枪</t>
-  </si>
-  <si>
-    <t>圣枪游侠</t>
-  </si>
-  <si>
-    <t>隆基努斯之枪</t>
-  </si>
-  <si>
-    <t>炸弹狂人</t>
-  </si>
-  <si>
-    <t>爆破者</t>
-  </si>
-  <si>
-    <t>天雷</t>
-  </si>
-  <si>
-    <t>弓弩手</t>
-  </si>
-  <si>
-    <t>十字弓弩手</t>
-  </si>
-  <si>
-    <t>战场收割机</t>
-  </si>
-  <si>
-    <t>皇家弩手</t>
-  </si>
-  <si>
-    <t>猎魔人</t>
-  </si>
-  <si>
-    <t>影弩</t>
-  </si>
-  <si>
-    <t>战场幽灵</t>
-  </si>
-  <si>
-    <t>机关连弩</t>
-  </si>
-  <si>
-    <t>终结者</t>
-  </si>
-  <si>
-    <t>斥候</t>
-  </si>
-  <si>
-    <t>刺客</t>
-  </si>
-  <si>
-    <t>双刃</t>
-  </si>
-  <si>
-    <t>战刃</t>
-  </si>
-  <si>
-    <t>战场风暴</t>
-  </si>
-  <si>
-    <t>放逐者</t>
-  </si>
-  <si>
-    <t>堕落者</t>
-  </si>
-  <si>
-    <t>堕落领主</t>
-  </si>
-  <si>
-    <t>边境伯爵</t>
-  </si>
-  <si>
-    <t>钉剑</t>
-  </si>
-  <si>
-    <t>刺剑使</t>
-  </si>
-  <si>
-    <t>花纹刺剑</t>
-  </si>
-  <si>
-    <t>时间秘会</t>
-  </si>
-  <si>
-    <t>永恒历程</t>
-  </si>
-  <si>
-    <t>拳刃</t>
-  </si>
-  <si>
-    <t>荒原隐士</t>
-  </si>
-  <si>
-    <t>朝圣者</t>
-  </si>
-  <si>
-    <t>黄昏之刃</t>
-  </si>
-  <si>
-    <t>利伯亚的子民</t>
-  </si>
-  <si>
-    <t>永生体</t>
-  </si>
-  <si>
-    <t>灵魂战车</t>
-  </si>
-  <si>
-    <t>灵魂猎者</t>
-  </si>
-  <si>
-    <t>初级元素师</t>
-  </si>
-  <si>
-    <t>魔法学徒</t>
-  </si>
-  <si>
-    <t>自然法师</t>
-  </si>
-  <si>
-    <t>元素圣使</t>
-  </si>
-  <si>
-    <t>元素法师</t>
-  </si>
-  <si>
-    <t>水元素师</t>
-  </si>
-  <si>
-    <t>圣魔导师</t>
-  </si>
-  <si>
-    <t>火元素师</t>
-  </si>
-  <si>
-    <t>拟态法师</t>
-  </si>
-  <si>
-    <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>万兽之灵</t>
-  </si>
-  <si>
-    <t>兽王神</t>
-  </si>
-  <si>
-    <t>龙之逆鳞</t>
-  </si>
-  <si>
-    <t>献祭圣灵</t>
-  </si>
-  <si>
-    <t>光之元素师</t>
-  </si>
-  <si>
-    <t>神殿法师</t>
-  </si>
-  <si>
-    <t>光明使</t>
-  </si>
-  <si>
-    <t>不朽圣灵</t>
-  </si>
-  <si>
-    <t>六翼天使</t>
-  </si>
-  <si>
-    <t>天堂之主</t>
-  </si>
-  <si>
-    <t>暗之元素师</t>
-  </si>
-  <si>
-    <t>放逐法师</t>
-  </si>
-  <si>
-    <t>黑暗使</t>
-  </si>
-  <si>
-    <t>永生怨灵</t>
-  </si>
-  <si>
-    <t>深渊死神</t>
-  </si>
-  <si>
-    <t>死亡之主</t>
-  </si>
-  <si>
-    <t>僧侣</t>
-  </si>
-  <si>
-    <t>牧师</t>
-  </si>
-  <si>
-    <t>神殿牧师</t>
-  </si>
-  <si>
-    <t>虔诚圣徒</t>
-  </si>
-  <si>
-    <t>神圣法典</t>
-  </si>
-  <si>
-    <t>云上居民</t>
-  </si>
-  <si>
-    <t>大天使长</t>
-  </si>
-  <si>
-    <t>无上教皇</t>
-  </si>
-  <si>
-    <t>圣战牧师</t>
-  </si>
-  <si>
-    <t>吸血鬼猎人</t>
-  </si>
-  <si>
-    <t>恶魔猎手</t>
-  </si>
-  <si>
-    <t>圣十字枪</t>
-  </si>
-  <si>
-    <t>范海辛的学徒</t>
-  </si>
-  <si>
-    <t>血族</t>
-  </si>
-  <si>
-    <t>血奴</t>
-  </si>
-  <si>
-    <t>鲜血之拥</t>
-  </si>
-  <si>
-    <t>异次元生物</t>
-  </si>
-  <si>
-    <t>吸血鬼</t>
-  </si>
-  <si>
-    <t>魔王之咬</t>
-  </si>
-  <si>
-    <t>死亡伯爵</t>
-  </si>
-  <si>
-    <t>恐惧魔王</t>
-  </si>
-  <si>
-    <t>成长属性</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>前置职业ID</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>武器主类别</t>
-  </si>
-  <si>
-    <t>攻击属性</t>
-  </si>
-  <si>
-    <t>比例</t>
-  </si>
-  <si>
-    <t>抗击弱势属性</t>
-  </si>
-  <si>
-    <t>生命（HP）</t>
-  </si>
-  <si>
-    <t>魔法（MP）</t>
-  </si>
-  <si>
-    <t>攻击（ATK）</t>
-  </si>
-  <si>
-    <t>防御（DEF）</t>
-  </si>
-  <si>
-    <t>MAT（魔攻）</t>
-  </si>
-  <si>
-    <t>MDF（魔防）</t>
-  </si>
-  <si>
-    <t>AGI（敏捷）</t>
-  </si>
-  <si>
-    <t>LUK（意志）</t>
-  </si>
-  <si>
-    <t>解锁等级</t>
-  </si>
-  <si>
-    <t>解锁条件</t>
-  </si>
-  <si>
-    <t>ranger</t>
-  </si>
-  <si>
-    <t>单手剑/单手斧/单手镰刀</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>风/雷/水/火/冰/地/光/暗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin-Sword </t>
-  </si>
-  <si>
-    <t>单手剑</t>
-  </si>
-  <si>
-    <t>claymore</t>
-  </si>
-  <si>
-    <t>双手剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin-Axe </t>
-  </si>
-  <si>
-    <t>单手斧</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>风/雷/水/冰/地/光/暗</t>
-  </si>
-  <si>
-    <t>Twin-Sickle</t>
-  </si>
-  <si>
-    <t>单手镰刀</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>雷/水/火/冰/地/光/暗</t>
-  </si>
-  <si>
-    <t>blast Twin-Sword</t>
-  </si>
-  <si>
-    <t>雷</t>
-  </si>
-  <si>
-    <t>风/水/火/冰/地/光/暗</t>
-  </si>
-  <si>
-    <t>Glaive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axe Berserker </t>
-  </si>
-  <si>
-    <t>风/雷/水/冰/光/暗</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claymore Berserker </t>
-  </si>
-  <si>
-    <t>双手大剑</t>
-  </si>
-  <si>
-    <t>Attack-Shield</t>
-  </si>
-  <si>
-    <t>单手剑/盾</t>
-  </si>
-  <si>
-    <t>Storm Warrior</t>
-  </si>
-  <si>
-    <t>单手战斧</t>
-  </si>
-  <si>
-    <t>风/火</t>
-  </si>
-  <si>
-    <t>雷/水/冰/光/暗</t>
-  </si>
-  <si>
-    <t>War Butcher</t>
-  </si>
-  <si>
-    <t>单手战镰</t>
-  </si>
-  <si>
-    <t>Split</t>
-  </si>
-  <si>
-    <t>单手刺</t>
-  </si>
-  <si>
-    <t>Iron Wall</t>
-  </si>
-  <si>
-    <t>单手锤/盾</t>
-  </si>
-  <si>
-    <t>War Death</t>
-  </si>
-  <si>
-    <t>双手镰</t>
-  </si>
-  <si>
-    <t>风/水/暗</t>
-  </si>
-  <si>
-    <t>Spirit Sword</t>
-  </si>
-  <si>
-    <t>灵魂剑（单手）</t>
-  </si>
-  <si>
-    <t>光/暗</t>
-  </si>
-  <si>
-    <t>Siege hammer</t>
-  </si>
-  <si>
-    <t>双手重剑</t>
-  </si>
-  <si>
-    <t>Thick soil</t>
-  </si>
-  <si>
-    <t>皇家单手剑/皇家盾</t>
-  </si>
-  <si>
-    <t>God's Armor</t>
-  </si>
-  <si>
-    <t>塔盾</t>
-  </si>
-  <si>
-    <t>Anarrhea Warrior</t>
-  </si>
-  <si>
-    <t>单手双刃斧</t>
-  </si>
-  <si>
-    <t>风/火/雷</t>
-  </si>
-  <si>
-    <t>水/冰/光/暗</t>
   </si>
   <si>
     <t>Death Weapen</t>
@@ -1718,8 +1441,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1746,11 +1469,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1761,10 +1483,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1775,9 +1530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1792,32 +1546,25 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1829,9 +1576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1848,29 +1594,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,6 +1620,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1909,37 +1734,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,13 +1770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,103 +1788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2077,7 +1800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,49 +1866,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2210,7 +1896,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2229,17 +1963,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2248,10 +1971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2260,137 +1983,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2400,9 +2123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2425,6 +2145,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2776,8 +2505,8 @@
   <sheetPr/>
   <dimension ref="C1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="21" customHeight="1"/>
@@ -2795,7 +2524,7 @@
       </c>
     </row>
     <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="16" customHeight="1" spans="3:10">
+    <row r="4" ht="16" customHeight="1" spans="3:8">
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -2811,691 +2540,486 @@
       <c r="G4" s="2">
         <v>40</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:8">
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:8">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" s="6" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:8">
+      <c r="C15" s="14"/>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C19" s="10"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="10"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" s="7" customFormat="1" customHeight="1" spans="5:6">
+      <c r="E23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="2">
+      <c r="D24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="14"/>
+      <c r="F25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" s="8" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C26" s="14"/>
+      <c r="D26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" s="8" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="2">
+      <c r="E27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" s="8" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" s="8" customFormat="1" customHeight="1"/>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="H30" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C33" s="10"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="10"/>
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C35" s="7"/>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" s="8" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C36" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="14">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C8" s="11"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:10">
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:9">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" s="7" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:10">
-      <c r="C15" s="12"/>
-      <c r="D15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C19" s="11"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C22" s="11"/>
-      <c r="D22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" s="8" customFormat="1" customHeight="1" spans="6:9">
-      <c r="F23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" s="9" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C24" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="12" t="s">
+    </row>
+    <row r="37" customHeight="1" spans="3:8">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" customHeight="1" spans="3:8">
+      <c r="C38" s="14"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="F38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="G38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:8">
+      <c r="C39" s="14"/>
+      <c r="D39" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" s="9" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="I25" s="9" t="s">
+      <c r="E39" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" s="9" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9" t="s">
+      <c r="F39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" s="9" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" s="9" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" s="9" customFormat="1" customHeight="1" spans="9:9">
-      <c r="I29" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C33" s="11"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C34" s="11"/>
-      <c r="D34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C35" s="8"/>
-      <c r="D35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" s="9" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C36" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:9">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:10">
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:9">
-      <c r="C39" s="12"/>
-      <c r="D39" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:10">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:8">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="8:8">
+      <c r="H41" s="1">
+        <v>95</v>
+      </c>
+    </row>
     <row r="42" s="1" customFormat="1" customHeight="1"/>
     <row r="43" s="1" customFormat="1" customHeight="1"/>
     <row r="44" s="1" customFormat="1" customHeight="1"/>
@@ -3509,62 +3033,54 @@
     <row r="52" s="1" customFormat="1" customHeight="1"/>
     <row r="53" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="47">
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="D36:D38"/>
     <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3578,7 +3094,7 @@
   <sheetPr/>
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -3590,8 +3106,8 @@
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
@@ -3603,72 +3119,72 @@
     <col min="18" max="18" width="16" style="2" customWidth="1"/>
     <col min="19" max="19" width="14.5" style="2" customWidth="1"/>
     <col min="20" max="20" width="13.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.375" style="4"/>
+    <col min="21" max="21" width="11.375" style="3"/>
     <col min="22" max="16384" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="11:11">
       <c r="K1" s="2" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:20">
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>162</v>
+        <v>102</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -3679,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -3721,9 +3237,9 @@
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U4" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="2:20">
       <c r="B5" s="2">
@@ -3733,19 +3249,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>176</v>
+        <v>121</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -3775,7 +3291,7 @@
         <v>10</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -3786,19 +3302,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -3828,9 +3344,9 @@
         <v>10</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U6" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="2:20">
       <c r="B7" s="2">
@@ -3840,19 +3356,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>184</v>
+        <v>128</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -3882,7 +3398,7 @@
         <v>20</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -3893,19 +3409,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -3935,9 +3451,9 @@
         <v>20</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U8" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="2:20">
       <c r="B9" s="2">
@@ -3947,19 +3463,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>191</v>
+        <v>136</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -3989,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4000,19 +3516,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -4042,9 +3558,9 @@
         <v>20</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U10" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="2:20">
       <c r="B11" s="2">
@@ -4054,19 +3570,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>184</v>
+        <v>128</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -4096,7 +3612,7 @@
         <v>30</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4107,13 +3623,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -4143,9 +3659,9 @@
         <v>30</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U12" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="2:20">
       <c r="B13" s="2">
@@ -4155,13 +3671,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -4191,7 +3707,7 @@
         <v>30</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4202,13 +3718,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -4238,9 +3754,9 @@
         <v>30</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U14" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="2:20">
       <c r="B15" s="2">
@@ -4250,19 +3766,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>203</v>
+        <v>152</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -4292,7 +3808,7 @@
         <v>40</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4303,13 +3819,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -4339,9 +3855,9 @@
         <v>40</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U16" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="2:20">
       <c r="B17" s="2">
@@ -4351,13 +3867,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4387,7 +3903,7 @@
         <v>40</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4398,13 +3914,13 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
@@ -4434,9 +3950,9 @@
         <v>40</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U18" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="2:20">
       <c r="B19" s="2">
@@ -4446,16 +3962,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4485,7 +4001,7 @@
         <v>50</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4496,19 +4012,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -4538,9 +4054,9 @@
         <v>50</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U20" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="2:20">
       <c r="B21" s="2">
@@ -4550,13 +4066,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="K21" s="2">
         <v>2</v>
@@ -4586,7 +4102,7 @@
         <v>50</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4597,13 +4113,13 @@
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="K22" s="1">
         <v>4</v>
@@ -4633,9 +4149,9 @@
         <v>50</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U22" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="2:20">
       <c r="B23" s="2">
@@ -4645,19 +4161,19 @@
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="K23" s="2">
         <v>6</v>
@@ -4687,7 +4203,7 @@
         <v>50</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4698,19 +4214,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
@@ -4740,9 +4256,9 @@
         <v>60</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U24" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="2:20">
       <c r="B25" s="2">
@@ -4752,19 +4268,19 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>229</v>
+        <v>181</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -4794,7 +4310,7 @@
         <v>60</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4805,19 +4321,19 @@
         <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -4847,9 +4363,9 @@
         <v>60</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="U26" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="U26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="2:20">
       <c r="B27" s="2">
@@ -4859,19 +4375,19 @@
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -4901,7 +4417,7 @@
         <v>60</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4912,19 +4428,19 @@
         <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -4954,9 +4470,9 @@
         <v>60</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U28" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="2:20">
       <c r="B29" s="2">
@@ -4966,21 +4482,21 @@
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="4"/>
       <c r="K29" s="2">
         <v>4</v>
       </c>
@@ -5009,7 +4525,7 @@
         <v>60</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -5020,19 +4536,19 @@
         <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -5062,9 +4578,9 @@
         <v>70</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U30" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="2:20">
       <c r="B31" s="2">
@@ -5074,19 +4590,19 @@
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>248</v>
+        <v>200</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -5116,7 +4632,7 @@
         <v>70</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -5127,19 +4643,19 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -5169,9 +4685,9 @@
         <v>70</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U32" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="U32" s="5"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B34" s="1">
@@ -5181,11 +4697,9 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="U34" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="U34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="2:2">
       <c r="B35" s="2">
@@ -5196,11 +4710,7 @@
       <c r="B36" s="1">
         <v>32</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="U36" s="6"/>
+      <c r="U36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/策划文案/职业表.xlsx
+++ b/策划文案/职业表.xlsx
@@ -816,7 +816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>初始职业</t>
   </si>
@@ -845,27 +845,36 @@
     <t>大剑狂战士</t>
   </si>
   <si>
+    <t>攻城锤</t>
+  </si>
+  <si>
+    <t>逆川勇者</t>
+  </si>
+  <si>
+    <t>混沌战士</t>
+  </si>
+  <si>
+    <t>攻击高速度慢</t>
+  </si>
+  <si>
+    <t>战场死神</t>
+  </si>
+  <si>
     <t>战场屠夫</t>
   </si>
   <si>
-    <t>逆川勇者</t>
-  </si>
-  <si>
-    <t>混沌战士</t>
-  </si>
-  <si>
-    <t>战场死神</t>
-  </si>
-  <si>
-    <t>攻城锤</t>
-  </si>
-  <si>
     <t>龙剑</t>
   </si>
   <si>
     <t>战神</t>
   </si>
   <si>
+    <t>均衡</t>
+  </si>
+  <si>
+    <t>有概率多次伤害</t>
+  </si>
+  <si>
     <t>剑盾</t>
   </si>
   <si>
@@ -1178,84 +1187,18 @@
     <t>风/雷/水/火/冰/地/光/暗</t>
   </si>
   <si>
-    <t>双剑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin-Sword </t>
+    <t>blast Twin-Sword</t>
   </si>
   <si>
     <t>单手剑</t>
   </si>
   <si>
-    <t>重剑</t>
-  </si>
-  <si>
-    <t>claymore</t>
-  </si>
-  <si>
-    <t>双手剑</t>
-  </si>
-  <si>
-    <t>双斧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twin-Axe </t>
-  </si>
-  <si>
-    <t>单手斧</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>风/雷/水/冰/地/光/暗</t>
-  </si>
-  <si>
-    <t>双镰</t>
-  </si>
-  <si>
-    <t>Twin-Sickle</t>
-  </si>
-  <si>
-    <t>单手镰刀</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>雷/水/火/冰/地/光/暗</t>
-  </si>
-  <si>
-    <t>blast Twin-Sword</t>
-  </si>
-  <si>
     <t>雷</t>
   </si>
   <si>
     <t>风/水/火/冰/地/光/暗</t>
   </si>
   <si>
-    <t>大剑战士</t>
-  </si>
-  <si>
-    <t>Glaive</t>
-  </si>
-  <si>
-    <t>狂战斧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axe Berserker </t>
-  </si>
-  <si>
-    <t>风/雷/水/冰/光/暗</t>
-  </si>
-  <si>
-    <t>飞鹰</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
     <t xml:space="preserve">claymore Berserker </t>
   </si>
   <si>
@@ -1268,43 +1211,10 @@
     <t>单手剑/盾</t>
   </si>
   <si>
-    <t>风暴战士</t>
-  </si>
-  <si>
-    <t>Storm Warrior</t>
-  </si>
-  <si>
-    <t>单手战斧</t>
-  </si>
-  <si>
-    <t>风/火</t>
-  </si>
-  <si>
-    <t>雷/水/冰/光/暗</t>
-  </si>
-  <si>
     <t>War Butcher</t>
   </si>
   <si>
     <t>单手战镰</t>
-  </si>
-  <si>
-    <t>分裂者</t>
-  </si>
-  <si>
-    <t>Split</t>
-  </si>
-  <si>
-    <t>单手刺</t>
-  </si>
-  <si>
-    <t>铁壁</t>
-  </si>
-  <si>
-    <t>Iron Wall</t>
-  </si>
-  <si>
-    <t>单手锤/盾</t>
   </si>
   <si>
     <t>War Death</t>
@@ -1462,8 +1372,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,6 +1395,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1484,23 +1411,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1515,11 +1426,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1531,46 +1450,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1591,9 +1471,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,7 +1536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,7 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,43 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,37 +1578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,7 +1614,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,49 +1692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,39 +1787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1928,8 +1805,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1949,6 +1826,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1963,6 +1855,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1971,10 +1881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1983,137 +1893,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2145,15 +2055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2505,8 +2406,8 @@
   <sheetPr/>
   <dimension ref="C1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="21" customHeight="1"/>
@@ -2575,9 +2476,9 @@
       <c r="H6" s="10"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -2590,40 +2491,49 @@
         <v>11</v>
       </c>
       <c r="H7" s="10"/>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="10"/>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -2631,100 +2541,100 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="8"/>
       <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" s="6" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="3:8">
-      <c r="C15" s="14"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="3:8">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C18" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9">
@@ -2742,140 +2652,140 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="11" t="s">
         <v>42</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C21" s="10"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C22" s="10"/>
       <c r="D22" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" s="7" customFormat="1" customHeight="1" spans="5:6">
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>52</v>
+      <c r="C24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="14">
+        <v>57</v>
+      </c>
+      <c r="H24" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C25" s="14"/>
+      <c r="C25" s="11"/>
       <c r="F25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" s="8" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C26" s="14"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" s="8" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
-        <v>60</v>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" s="8" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="14"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" s="8" customFormat="1" customHeight="1"/>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C30" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H30" s="9">
         <v>19</v>
@@ -2886,10 +2796,10 @@
       <c r="D31" s="10"/>
       <c r="E31" s="7"/>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -2897,13 +2807,13 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -2912,100 +2822,100 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C34" s="10"/>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C35" s="7"/>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" s="8" customFormat="1" customHeight="1" spans="3:8">
-      <c r="C36" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>86</v>
+      <c r="C36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="14">
+        <v>91</v>
+      </c>
+      <c r="H36" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:8">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" customHeight="1" spans="3:8">
-      <c r="C38" s="14"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="8"/>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" customHeight="1" spans="3:8">
-      <c r="C39" s="14"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" customHeight="1" spans="3:8">
       <c r="C40" s="8"/>
@@ -3094,8 +3004,8 @@
   <sheetPr/>
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="19" customHeight="1"/>
@@ -3125,66 +3035,66 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="11:11">
       <c r="K1" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:20">
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -3198,16 +3108,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -3237,222 +3147,17 @@
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" customHeight="1" spans="2:20">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>10</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:21">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>10</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>118</v>
-      </c>
+    <row r="5" customHeight="1" spans="6:6">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="21:21">
       <c r="U6" s="5"/>
     </row>
-    <row r="7" customHeight="1" spans="2:20">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>20</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:21">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>20</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>118</v>
-      </c>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="21:21">
       <c r="U8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="2:20">
@@ -3466,16 +3171,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -3505,162 +3210,13 @@
         <v>20</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:21">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>20</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="21:21">
       <c r="U10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="2:20">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>4</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>30</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="2:21">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>4</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>4</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>30</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>118</v>
-      </c>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="21:21">
       <c r="U12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="2:20">
@@ -3674,10 +3230,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3707,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -3718,13 +3274,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -3754,62 +3310,9 @@
         <v>30</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:20">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>5</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>2</v>
-      </c>
-      <c r="S15" s="2">
-        <v>40</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="2:21">
       <c r="B16" s="1">
@@ -3819,13 +3322,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -3855,103 +3358,11 @@
         <v>40</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="2:20">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>40</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:21">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1">
-        <v>40</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>118</v>
-      </c>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="21:21">
       <c r="U18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="2:20">
@@ -3962,16 +3373,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4001,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4015,16 +3426,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -4054,7 +3465,7 @@
         <v>50</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U20" s="5"/>
     </row>
@@ -4066,13 +3477,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="K21" s="2">
         <v>2</v>
@@ -4102,7 +3513,7 @@
         <v>50</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4113,13 +3524,13 @@
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="K22" s="1">
         <v>4</v>
@@ -4149,7 +3560,7 @@
         <v>50</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U22" s="5"/>
     </row>
@@ -4161,19 +3572,19 @@
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K23" s="2">
         <v>6</v>
@@ -4203,7 +3614,7 @@
         <v>50</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4217,16 +3628,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
@@ -4256,7 +3667,7 @@
         <v>60</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U24" s="5"/>
     </row>
@@ -4268,19 +3679,19 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -4310,7 +3721,7 @@
         <v>60</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4324,16 +3735,16 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -4363,7 +3774,7 @@
         <v>60</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="U26" s="5"/>
     </row>
@@ -4378,16 +3789,16 @@
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -4417,7 +3828,7 @@
         <v>60</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4428,19 +3839,19 @@
         <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -4470,7 +3881,7 @@
         <v>60</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U28" s="5"/>
     </row>
@@ -4482,19 +3893,19 @@
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="2">
@@ -4525,7 +3936,7 @@
         <v>60</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4539,16 +3950,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -4578,7 +3989,7 @@
         <v>70</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U30" s="5"/>
     </row>
@@ -4593,16 +4004,16 @@
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -4632,7 +4043,7 @@
         <v>70</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="2:21">
@@ -4643,19 +4054,19 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -4685,7 +4096,7 @@
         <v>70</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U32" s="5"/>
     </row>
@@ -4697,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="U34" s="5"/>
     </row>
